--- a/Estadisticas.xlsx
+++ b/Estadisticas.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibarrosj\eclipse-workspace\GenerarEstadisticas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Eclipse\GenerarEstadisticas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24576" windowHeight="9816"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24570" windowHeight="9810"/>
   </bookViews>
   <sheets>
     <sheet name="17" sheetId="1" r:id="rId1"/>
@@ -435,35 +435,35 @@
   <dimension ref="C10:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
-    <col min="13" max="13" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
     <col min="19" max="19" width="16" customWidth="1"/>
     <col min="25" max="25" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="4:28" ht="21" x14ac:dyDescent="0.4">
+    <row r="10" spans="4:28" ht="21" x14ac:dyDescent="0.35">
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="4:28" ht="21" x14ac:dyDescent="0.4">
+    <row r="11" spans="4:28" ht="21" x14ac:dyDescent="0.35">
       <c r="V11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
     </row>
-    <row r="14" spans="4:28" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="4:28" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:28" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="4:28" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J15" s="2" t="s">
         <v>9</v>
       </c>
@@ -483,7 +483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="4:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="4:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
@@ -501,13 +501,13 @@
       </c>
       <c r="J16" s="2">
         <f>L16-K16</f>
-        <v>849</v>
+        <v>1978</v>
       </c>
       <c r="K16" s="1">
-        <v>222</v>
+        <v>428</v>
       </c>
       <c r="L16" s="3">
-        <v>1071</v>
+        <v>2406</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>9</v>
@@ -534,19 +534,19 @@
         <v>861</v>
       </c>
     </row>
-    <row r="17" spans="3:28" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:28" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E17" s="1">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="F17" s="3">
         <f>E17+D17</f>
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="G17" s="3">
         <v>143</v>
@@ -556,14 +556,14 @@
       </c>
       <c r="J17" s="2">
         <f>L17-K17</f>
-        <v>3901</v>
+        <v>9011</v>
       </c>
       <c r="K17" s="1">
-        <v>383</v>
+        <v>613</v>
       </c>
       <c r="L17" s="3">
         <f>L16*4</f>
-        <v>4284</v>
+        <v>9624</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>4</v>
@@ -593,61 +593,61 @@
         <v>3444</v>
       </c>
     </row>
-    <row r="18" spans="3:28" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:28" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="2">
         <f>(D17/$F$17)*100</f>
-        <v>58.22784810126582</v>
+        <v>47.058823529411761</v>
       </c>
       <c r="E18" s="1">
         <f>(E17/$F$17)*100</f>
-        <v>41.77215189873418</v>
+        <v>52.941176470588239</v>
       </c>
       <c r="F18" s="3">
         <f>($F$17/G17)*100</f>
-        <v>55.24475524475524</v>
+        <v>71.328671328671334</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="J18" s="2">
         <f>(J16/$L$16)*100</f>
-        <v>79.271708683473392</v>
+        <v>82.211138819617631</v>
       </c>
       <c r="K18" s="1">
         <f>(K16/$L$16)*100</f>
-        <v>20.728291316526612</v>
+        <v>17.78886118038238</v>
       </c>
       <c r="S18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="T18" s="2">
         <f>(T17/$F$17)*100</f>
-        <v>45.569620253164558</v>
+        <v>35.294117647058826</v>
       </c>
       <c r="U18" s="1">
         <f>(U17/$F$17)*100</f>
-        <v>30.37974683544304</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="V18" s="3">
         <f>($F$17/W17)*100</f>
-        <v>55.24475524475524</v>
+        <v>71.328671328671334</v>
       </c>
       <c r="Y18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="Z18" s="2">
         <f>(Z16/$L$16)*100</f>
-        <v>22.502334267040151</v>
+        <v>10.0166251039069</v>
       </c>
       <c r="AA18" s="1">
         <f>(AA16/$L$16)*100</f>
-        <v>32.49299719887955</v>
-      </c>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.3">
+        <v>14.463840399002494</v>
+      </c>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.25">
       <c r="I20" t="s">
         <v>1</v>
       </c>
@@ -655,7 +655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.25">
       <c r="I21" t="s">
         <v>0</v>
       </c>

--- a/Estadisticas.xlsx
+++ b/Estadisticas.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Eclipse\GenerarEstadisticas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibarrosj\eclipse-workspace\GenerarEstadisticas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24570" windowHeight="9810"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24576" windowHeight="9816"/>
   </bookViews>
   <sheets>
     <sheet name="17" sheetId="1" r:id="rId1"/>
@@ -434,36 +434,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C10:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" customWidth="1"/>
     <col min="19" max="19" width="16" customWidth="1"/>
     <col min="25" max="25" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="4:28" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="4:28" ht="21" x14ac:dyDescent="0.4">
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="4:28" ht="21" x14ac:dyDescent="0.35">
+    <row r="11" spans="4:28" ht="21" x14ac:dyDescent="0.4">
       <c r="V11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
     </row>
-    <row r="14" spans="4:28" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="4:28" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:28" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="4:28" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J15" s="2" t="s">
         <v>9</v>
       </c>
@@ -483,7 +483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="4:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
@@ -501,13 +501,13 @@
       </c>
       <c r="J16" s="2">
         <f>L16-K16</f>
-        <v>1978</v>
+        <v>2479</v>
       </c>
       <c r="K16" s="1">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L16" s="3">
-        <v>2406</v>
+        <v>2909</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>9</v>
@@ -534,36 +534,36 @@
         <v>861</v>
       </c>
     </row>
-    <row r="17" spans="3:28" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:28" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="2">
-        <v>48</v>
+        <f>F17-E17</f>
+        <v>83</v>
       </c>
       <c r="E17" s="1">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F17" s="3">
-        <f>E17+D17</f>
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="G17" s="3">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J17" s="2">
         <f>L17-K17</f>
-        <v>9011</v>
+        <v>10907</v>
       </c>
       <c r="K17" s="1">
-        <v>613</v>
+        <v>729</v>
       </c>
       <c r="L17" s="3">
         <f>L16*4</f>
-        <v>9624</v>
+        <v>11636</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>4</v>
@@ -593,61 +593,61 @@
         <v>3444</v>
       </c>
     </row>
-    <row r="18" spans="3:28" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:28" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="2">
         <f>(D17/$F$17)*100</f>
-        <v>47.058823529411761</v>
+        <v>57.638888888888886</v>
       </c>
       <c r="E18" s="1">
         <f>(E17/$F$17)*100</f>
-        <v>52.941176470588239</v>
+        <v>42.361111111111107</v>
       </c>
       <c r="F18" s="3">
         <f>($F$17/G17)*100</f>
-        <v>71.328671328671334</v>
+        <v>100</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="J18" s="2">
         <f>(J16/$L$16)*100</f>
-        <v>82.211138819617631</v>
+        <v>85.218288071502229</v>
       </c>
       <c r="K18" s="1">
         <f>(K16/$L$16)*100</f>
-        <v>17.78886118038238</v>
+        <v>14.781711928497765</v>
       </c>
       <c r="S18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="T18" s="2">
         <f>(T17/$F$17)*100</f>
-        <v>35.294117647058826</v>
+        <v>25</v>
       </c>
       <c r="U18" s="1">
         <f>(U17/$F$17)*100</f>
-        <v>23.52941176470588</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="V18" s="3">
         <f>($F$17/W17)*100</f>
-        <v>71.328671328671334</v>
+        <v>100.69930069930071</v>
       </c>
       <c r="Y18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="Z18" s="2">
         <f>(Z16/$L$16)*100</f>
-        <v>10.0166251039069</v>
+        <v>8.2846338948092129</v>
       </c>
       <c r="AA18" s="1">
         <f>(AA16/$L$16)*100</f>
-        <v>14.463840399002494</v>
-      </c>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.25">
+        <v>11.962873839807495</v>
+      </c>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.3">
       <c r="I20" t="s">
         <v>1</v>
       </c>
@@ -655,7 +655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.3">
       <c r="I21" t="s">
         <v>0</v>
       </c>

--- a/Estadisticas.xlsx
+++ b/Estadisticas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24576" windowHeight="9816"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5196"/>
   </bookViews>
   <sheets>
     <sheet name="17" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
   <dimension ref="C10:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="I15" sqref="I15:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,10 +501,10 @@
       </c>
       <c r="J16" s="2">
         <f>L16-K16</f>
-        <v>2479</v>
+        <v>1976</v>
       </c>
       <c r="K16" s="1">
-        <v>430</v>
+        <v>933</v>
       </c>
       <c r="L16" s="3">
         <v>2909</v>
@@ -540,10 +540,10 @@
       </c>
       <c r="D17" s="2">
         <f>F17-E17</f>
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="E17" s="1">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="F17" s="3">
         <v>144</v>
@@ -556,10 +556,10 @@
       </c>
       <c r="J17" s="2">
         <f>L17-K17</f>
-        <v>10907</v>
+        <v>9985</v>
       </c>
       <c r="K17" s="1">
-        <v>729</v>
+        <v>1651</v>
       </c>
       <c r="L17" s="3">
         <f>L16*4</f>
@@ -599,11 +599,11 @@
       </c>
       <c r="D18" s="2">
         <f>(D17/$F$17)*100</f>
-        <v>57.638888888888886</v>
+        <v>43.055555555555557</v>
       </c>
       <c r="E18" s="1">
         <f>(E17/$F$17)*100</f>
-        <v>42.361111111111107</v>
+        <v>56.944444444444443</v>
       </c>
       <c r="F18" s="3">
         <f>($F$17/G17)*100</f>
@@ -614,11 +614,11 @@
       </c>
       <c r="J18" s="2">
         <f>(J16/$L$16)*100</f>
-        <v>85.218288071502229</v>
+        <v>67.927122722585082</v>
       </c>
       <c r="K18" s="1">
         <f>(K16/$L$16)*100</f>
-        <v>14.781711928497765</v>
+        <v>32.072877277414918</v>
       </c>
       <c r="S18" s="2" t="s">
         <v>2</v>

--- a/Estadisticas.xlsx
+++ b/Estadisticas.xlsx
@@ -435,7 +435,7 @@
   <dimension ref="C10:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15:L22"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,13 +501,13 @@
       </c>
       <c r="J16" s="2">
         <f>L16-K16</f>
-        <v>1976</v>
+        <v>2893</v>
       </c>
       <c r="K16" s="1">
-        <v>933</v>
+        <v>260</v>
       </c>
       <c r="L16" s="3">
-        <v>2909</v>
+        <v>3153</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>9</v>
@@ -540,10 +540,10 @@
       </c>
       <c r="D17" s="2">
         <f>F17-E17</f>
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="E17" s="1">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="F17" s="3">
         <v>144</v>
@@ -556,14 +556,14 @@
       </c>
       <c r="J17" s="2">
         <f>L17-K17</f>
-        <v>9985</v>
+        <v>12218</v>
       </c>
       <c r="K17" s="1">
-        <v>1651</v>
+        <v>394</v>
       </c>
       <c r="L17" s="3">
         <f>L16*4</f>
-        <v>11636</v>
+        <v>12612</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>4</v>
@@ -599,11 +599,11 @@
       </c>
       <c r="D18" s="2">
         <f>(D17/$F$17)*100</f>
-        <v>43.055555555555557</v>
+        <v>65.972222222222214</v>
       </c>
       <c r="E18" s="1">
         <f>(E17/$F$17)*100</f>
-        <v>56.944444444444443</v>
+        <v>34.027777777777779</v>
       </c>
       <c r="F18" s="3">
         <f>($F$17/G17)*100</f>
@@ -614,11 +614,11 @@
       </c>
       <c r="J18" s="2">
         <f>(J16/$L$16)*100</f>
-        <v>67.927122722585082</v>
+        <v>91.753885188709162</v>
       </c>
       <c r="K18" s="1">
         <f>(K16/$L$16)*100</f>
-        <v>32.072877277414918</v>
+        <v>8.246114811290834</v>
       </c>
       <c r="S18" s="2" t="s">
         <v>2</v>
@@ -640,11 +640,11 @@
       </c>
       <c r="Z18" s="2">
         <f>(Z16/$L$16)*100</f>
-        <v>8.2846338948092129</v>
+        <v>7.6435141135426585</v>
       </c>
       <c r="AA18" s="1">
         <f>(AA16/$L$16)*100</f>
-        <v>11.962873839807495</v>
+        <v>11.037107516650808</v>
       </c>
     </row>
     <row r="20" spans="3:28" x14ac:dyDescent="0.3">
